--- a/notes/Gongjun_germplasm_04012016.xlsx
+++ b/notes/Gongjun_germplasm_04012016.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -70,7 +69,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">piresjc@ missouri.edu</t>
+      <t>piresjc@ missouri.edu</t>
     </r>
   </si>
   <si>
@@ -97,7 +96,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">371b Bond Life Sciences Center</t>
+      <t>371b Bond Life Sciences Center</t>
     </r>
   </si>
   <si>
@@ -124,7 +123,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">573-882-0619</t>
+      <t>573-882-0619</t>
     </r>
   </si>
   <si>
@@ -137,7 +136,7 @@
     <t>B. rapa sylvestris</t>
   </si>
   <si>
-    <t>wild </t>
+    <t>wild</t>
   </si>
   <si>
     <r>
@@ -151,7 +150,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">311 Bond Life Sciences Center</t>
+      <t>311 Bond Life Sciences Center</t>
     </r>
   </si>
   <si>
@@ -172,7 +171,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">573-882-2004</t>
+      <t>573-882-2004</t>
     </r>
   </si>
   <si>
@@ -182,7 +181,7 @@
     <t>G23</t>
   </si>
   <si>
-    <t>B. rapa </t>
+    <t>B. rapa</t>
   </si>
   <si>
     <t>PI 662686</t>
@@ -299,7 +298,7 @@
     <t>G31</t>
   </si>
   <si>
-    <t>Graham.Teakle@warwick.ac.uk </t>
+    <t>Graham.Teakle@warwick.ac.uk</t>
   </si>
   <si>
     <t>GRU007322</t>
@@ -332,7 +331,7 @@
     <t>(https://npgsweb.ars-grin.gov/gringlobal/search.aspx</t>
   </si>
   <si>
-    <t>Robertson, Larry </t>
+    <t>Robertson, Larry</t>
   </si>
   <si>
     <t>NE9@ars-grin.gov</t>
@@ -344,7 +343,7 @@
     <t>G36</t>
   </si>
   <si>
-    <t>B. oleracea </t>
+    <t>B. oleracea</t>
   </si>
   <si>
     <t>(315) 787-2356</t>
@@ -389,7 +388,7 @@
     <t>G41</t>
   </si>
   <si>
-    <t>landrace </t>
+    <t>landrace</t>
   </si>
   <si>
     <t>H.annuus</t>
@@ -574,7 +573,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kathleen.reitsma@ars.usda.gov</t>
+      <t>kathleen.reitsma@ars.usda.gov</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +593,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kreitsma@iastate.edu</t>
+      <t>kreitsma@iastate.edu</t>
     </r>
   </si>
   <si>
@@ -697,33 +696,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -740,7 +720,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -755,7 +735,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -818,217 +798,138 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1087,35 +988,330 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.7125506072875"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="66.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="11"/>
+    <col min="3" max="3" width="21.7109375"/>
+    <col min="4" max="5" width="13.85546875"/>
+    <col min="6" max="7" width="16.42578125"/>
+    <col min="8" max="8" width="42.7109375"/>
+    <col min="9" max="9" width="66.28515625"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1149,11 +1345,11 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1365,7 @@
       <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
@@ -1177,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1413,7 @@
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
       <c r="G5" s="11"/>
@@ -1225,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -1289,12 +1485,12 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1310,12 +1506,12 @@
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -1331,12 +1527,12 @@
       <c r="E10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1352,12 +1548,12 @@
       <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1373,12 +1569,12 @@
       <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -1394,12 +1590,12 @@
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1415,12 +1611,12 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="14"/>
@@ -1429,7 +1625,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1642,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>54</v>
       </c>
@@ -1456,11 +1652,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1477,7 +1673,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1494,7 +1690,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1511,7 +1707,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1528,7 +1724,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1741,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1555,11 +1751,11 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
@@ -1575,11 +1771,11 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
@@ -1595,11 +1791,11 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>75</v>
       </c>
@@ -1616,7 +1812,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>77</v>
       </c>
@@ -1633,7 +1829,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>79</v>
       </c>
@@ -1650,7 +1846,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>81</v>
       </c>
@@ -1667,7 +1863,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
@@ -1686,7 +1882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -1702,11 +1898,11 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -1722,11 +1918,11 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
@@ -1742,11 +1938,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1763,7 +1959,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -1780,7 +1976,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -1797,7 +1993,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1806,7 +2002,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -1819,7 +2015,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>106</v>
       </c>
@@ -1846,7 +2042,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>111</v>
       </c>
@@ -1873,7 +2069,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>115</v>
       </c>
@@ -1900,7 +2096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -1927,7 +2123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>123</v>
       </c>
@@ -1954,7 +2150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>126</v>
       </c>
@@ -1981,7 +2177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>129</v>
       </c>
@@ -1997,7 +2193,7 @@
       <c r="E45" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F45" s="10">
         <v>1</v>
       </c>
       <c r="G45" s="11"/>
@@ -2008,7 +2204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>133</v>
       </c>
@@ -2024,7 +2220,7 @@
       <c r="E46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="10" t="n">
+      <c r="F46" s="10">
         <v>0.9</v>
       </c>
       <c r="G46" s="11"/>
@@ -2032,7 +2228,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>136</v>
       </c>
@@ -2048,7 +2244,7 @@
       <c r="E47" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="10" t="n">
+      <c r="F47" s="10">
         <v>1</v>
       </c>
       <c r="G47" s="11"/>
@@ -2056,7 +2252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>138</v>
       </c>
@@ -2072,12 +2268,12 @@
       <c r="E48" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="10" t="n">
+      <c r="F48" s="10">
         <v>0.8</v>
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>139</v>
       </c>
@@ -2093,12 +2289,12 @@
       <c r="E49" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="10">
         <v>0.9</v>
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>141</v>
       </c>
@@ -2114,12 +2310,12 @@
       <c r="E50" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F50" s="10">
         <v>1</v>
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2128,7 +2324,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>142</v>
       </c>
@@ -2147,7 +2343,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -2163,7 +2359,7 @@
       <c r="E53" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F53" s="10">
         <v>0.8</v>
       </c>
       <c r="G53" s="11"/>
@@ -2174,7 +2370,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>149</v>
       </c>
@@ -2190,7 +2386,7 @@
       <c r="E54" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F54" s="10">
         <v>1</v>
       </c>
       <c r="G54" s="11"/>
@@ -2201,7 +2397,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>152</v>
       </c>
@@ -2217,7 +2413,7 @@
       <c r="E55" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="F55" s="10">
         <v>0.8</v>
       </c>
       <c r="G55" s="11"/>
@@ -2226,7 +2422,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>154</v>
       </c>
@@ -2242,7 +2438,7 @@
       <c r="E56" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F56" s="10">
         <v>0.8</v>
       </c>
       <c r="G56" s="11"/>
@@ -2253,7 +2449,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>157</v>
       </c>
@@ -2269,7 +2465,7 @@
       <c r="E57" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F57" s="10">
         <v>1</v>
       </c>
       <c r="G57" s="11"/>
@@ -2278,7 +2474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>160</v>
       </c>
@@ -2294,7 +2490,7 @@
       <c r="E58" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F58" s="10">
         <v>0.6</v>
       </c>
       <c r="G58" s="11"/>
@@ -2305,7 +2501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>163</v>
       </c>
@@ -2321,7 +2517,7 @@
       <c r="E59" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="10" t="n">
+      <c r="F59" s="10">
         <v>0.6</v>
       </c>
       <c r="G59" s="11"/>
@@ -2329,7 +2525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>166</v>
       </c>
@@ -2345,12 +2541,12 @@
       <c r="E60" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="10" t="n">
+      <c r="F60" s="10">
         <v>1</v>
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>168</v>
       </c>
@@ -2366,12 +2562,12 @@
       <c r="E61" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="10" t="n">
+      <c r="F61" s="10">
         <v>1</v>
       </c>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>169</v>
       </c>
@@ -2387,12 +2583,12 @@
       <c r="E62" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="10" t="n">
+      <c r="F62" s="10">
         <v>0.8</v>
       </c>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>170</v>
       </c>
@@ -2408,12 +2604,12 @@
       <c r="E63" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="10" t="n">
+      <c r="F63" s="10">
         <v>1</v>
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>171</v>
       </c>
@@ -2429,12 +2625,12 @@
       <c r="E64" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F64" s="10">
         <v>1</v>
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2443,7 +2639,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
@@ -2462,7 +2658,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>174</v>
       </c>
@@ -2478,7 +2674,7 @@
       <c r="E67" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="25">
         <v>1</v>
       </c>
       <c r="G67" s="26"/>
@@ -2489,7 +2685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>178</v>
       </c>
@@ -2505,7 +2701,7 @@
       <c r="E68" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="25">
         <v>0.9</v>
       </c>
       <c r="G68" s="26"/>
@@ -2516,7 +2712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>179</v>
       </c>
@@ -2532,7 +2728,7 @@
       <c r="E69" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="25">
         <v>0.6</v>
       </c>
       <c r="G69" s="26"/>
@@ -2541,7 +2737,7 @@
       </c>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -2557,7 +2753,7 @@
       <c r="E70" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="25">
         <v>0.8</v>
       </c>
       <c r="G70" s="26"/>
@@ -2568,7 +2764,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>182</v>
       </c>
@@ -2584,7 +2780,7 @@
       <c r="E71" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="25">
         <v>0.6</v>
       </c>
       <c r="G71" s="26"/>
@@ -2595,7 +2791,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>183</v>
       </c>
@@ -2611,7 +2807,7 @@
       <c r="E72" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="25">
         <v>0.5</v>
       </c>
       <c r="G72" s="26"/>
@@ -2622,7 +2818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>184</v>
       </c>
@@ -2638,12 +2834,12 @@
       <c r="E73" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="29" t="n">
+      <c r="F73" s="29">
         <v>0.8</v>
       </c>
       <c r="G73" s="30"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>187</v>
       </c>
@@ -2659,12 +2855,12 @@
       <c r="E74" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F74" s="29" t="n">
+      <c r="F74" s="29">
         <v>1</v>
       </c>
       <c r="G74" s="30"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>189</v>
       </c>
@@ -2680,12 +2876,12 @@
       <c r="E75" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="29" t="n">
+      <c r="F75" s="29">
         <v>0.8</v>
       </c>
       <c r="G75" s="30"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>191</v>
       </c>
@@ -2701,12 +2897,12 @@
       <c r="E76" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="29" t="n">
+      <c r="F76" s="29">
         <v>1</v>
       </c>
       <c r="G76" s="30"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>192</v>
       </c>
@@ -2722,12 +2918,12 @@
       <c r="E77" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F77" s="29" t="n">
+      <c r="F77" s="29">
         <v>0.8</v>
       </c>
       <c r="G77" s="30"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>194</v>
       </c>
@@ -2743,30 +2939,25 @@
       <c r="E78" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F78" s="29" t="n">
+      <c r="F78" s="29">
         <v>1</v>
       </c>
       <c r="G78" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="(https://npgsweb.ars-grin.gov/gringlobal/search.aspx"/>
+    <hyperlink ref="C30" r:id="rId1"/>
     <hyperlink ref="H30" r:id="rId2" display="Robertson, Larry "/>
-    <hyperlink ref="I30" r:id="rId3" display="NE9@ars-grin.gov"/>
-    <hyperlink ref="C38" r:id="rId4" display="(https://npgsweb.ars-grin.gov/gringlobal/search.aspx"/>
-    <hyperlink ref="H45" r:id="rId5" display="Email: Robert.Stebbins@ars.usda.gov"/>
-    <hyperlink ref="I45" r:id="rId6" display="lmarek@iastate.edu"/>
-    <hyperlink ref="C52" r:id="rId7" display="(https://npgsweb.ars-grin.gov/gringlobal/search.aspx"/>
-    <hyperlink ref="H59" r:id="rId8" display="Email: Robert.Stebbins@ars.usda.gov"/>
-    <hyperlink ref="C66" r:id="rId9" display="(https://npgsweb.ars-grin.gov/gringlobal/search.aspx"/>
-    <hyperlink ref="H72" r:id="rId10" display="Email: Robert.Stebbins@ars.usda.gov"/>
+    <hyperlink ref="I30" r:id="rId3"/>
+    <hyperlink ref="C38" r:id="rId4"/>
+    <hyperlink ref="H45" r:id="rId5"/>
+    <hyperlink ref="I45" r:id="rId6"/>
+    <hyperlink ref="C52" r:id="rId7"/>
+    <hyperlink ref="H59" r:id="rId8"/>
+    <hyperlink ref="C66" r:id="rId9"/>
+    <hyperlink ref="H72" r:id="rId10"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>